--- a/data/trans_dic/IP7_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP7_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 11,1</t>
+          <t>2,4; 11,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 9,95</t>
+          <t>1,65; 9,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,45</t>
+          <t>0,0; 7,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 15,03</t>
+          <t>2,86; 15,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 9,86</t>
+          <t>2,1; 9,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,17</t>
+          <t>0,71; 6,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 10,27</t>
+          <t>0,91; 11,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 24,23</t>
+          <t>1,15; 22,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 8,3</t>
+          <t>2,99; 8,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,44</t>
+          <t>1,69; 6,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,55</t>
+          <t>1,3; 7,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 15,58</t>
+          <t>3,34; 17,21</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,79</t>
+          <t>2,2; 4,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,96</t>
+          <t>1,59; 4,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,77</t>
+          <t>1,35; 3,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,81</t>
+          <t>0,85; 2,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,9</t>
+          <t>0,76; 2,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,46</t>
+          <t>1,64; 4,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,71</t>
+          <t>1,25; 3,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,08</t>
+          <t>1,48; 4,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 3,48</t>
+          <t>1,8; 3,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,62</t>
+          <t>1,92; 3,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,22</t>
+          <t>1,56; 3,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,94</t>
+          <t>1,37; 2,95</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,87</t>
+          <t>1,22; 5,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,31</t>
+          <t>0,37; 3,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,22</t>
+          <t>0,32; 3,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 6,42</t>
+          <t>1,21; 6,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,06</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,29</t>
+          <t>0,0; 3,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,16</t>
+          <t>0,54; 4,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,91</t>
+          <t>0,78; 2,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,47</t>
+          <t>0,42; 2,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,15</t>
+          <t>0,33; 2,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,5</t>
+          <t>1,04; 4,34</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,68</t>
+          <t>2,53; 4,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,69</t>
+          <t>1,7; 3,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,08</t>
+          <t>1,38; 3,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,56</t>
+          <t>1,52; 3,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,72</t>
+          <t>1,05; 2,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,43</t>
+          <t>1,48; 3,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,92</t>
+          <t>1,24; 2,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,55</t>
+          <t>1,72; 4,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,4</t>
+          <t>2,03; 3,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,2</t>
+          <t>1,88; 3,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,76</t>
+          <t>1,46; 2,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,46</t>
+          <t>1,85; 3,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP7_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP7_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,01%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>2,13; 9,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,7; 6,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 9,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,23; 42,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,38; 10,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,5; 9,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 7,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>2,94; 15,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>2,97; 8,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>1,68; 6,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,22; 7,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>3,84; 23,89</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,27 +796,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -826,32 +826,32 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 11,1</t>
+          <t>0,73; 2,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 9,54</t>
+          <t>1,61; 4,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,92</t>
+          <t>1,23; 3,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 15,4</t>
+          <t>1,43; 4,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 9,33</t>
+          <t>2,21; 4,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,56</t>
+          <t>1,66; 4,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 11,4</t>
+          <t>1,41; 3,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 22,41</t>
+          <t>0,88; 2,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,31</t>
+          <t>1,77; 3,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,41</t>
+          <t>1,96; 3,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 7,13</t>
+          <t>1,56; 3,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 17,21</t>
+          <t>1,37; 3,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,43%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,88</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,01</t>
+          <t>0,0; 2,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,77</t>
+          <t>0,0; 1,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,74</t>
+          <t>0,53; 4,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,72</t>
+          <t>1,26; 5,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,26</t>
+          <t>0,38; 4,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,51</t>
+          <t>0,32; 3,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,17</t>
+          <t>1,22; 6,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,54</t>
+          <t>0,75; 2,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,61</t>
+          <t>0,43; 2,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,17</t>
+          <t>0,29; 1,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,95</t>
+          <t>1,13; 4,52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,79</t>
+          <t>1,01; 2,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,64</t>
+          <t>1,53; 3,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,46</t>
+          <t>1,21; 2,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 6,02</t>
+          <t>1,82; 6,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,47</t>
+          <t>2,6; 4,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,21</t>
+          <t>1,66; 3,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,2</t>
+          <t>1,29; 3,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,72</t>
+          <t>1,53; 3,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,94</t>
+          <t>2,02; 3,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,48</t>
+          <t>1,87; 3,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,07</t>
+          <t>1,49; 2,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,34</t>
+          <t>2,03; 4,38</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,53%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,5%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,09%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,38%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,34%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,7%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2,65%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>2,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>2,53; 4,72</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 3,59</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 3,21</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 3,62</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 2,59</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 3,31</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 2,87</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 4,44</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 3,39</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 3,28</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 2,64</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>1,85; 3,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
